--- a/ExcelExamples/CDS.xlsx
+++ b/ExcelExamples/CDS.xlsx
@@ -4,7 +4,7 @@
   <fileVersion appName="xl" lastEdited="5" lowestEdited="5" rupBuild="9303"/>
   <workbookPr defaultThemeVersion="124226"/>
   <bookViews>
-    <workbookView xWindow="480" yWindow="75" windowWidth="18195" windowHeight="10290"/>
+    <workbookView xWindow="480" yWindow="72" windowWidth="18192" windowHeight="10296" activeTab="3"/>
   </bookViews>
   <sheets>
     <sheet name="CDS ZAR" sheetId="1" r:id="rId1"/>
@@ -12,15 +12,15 @@
     <sheet name="Hazard Curve" sheetId="2" r:id="rId3"/>
     <sheet name="FX Model etc" sheetId="3" r:id="rId4"/>
   </sheets>
+  <definedNames>
+    <definedName name="ACME_CORP">'CDS ZAR'!$C$12</definedName>
+  </definedNames>
   <calcPr calcId="145621" calcMode="manual" calcOnSave="0"/>
 </workbook>
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="97" uniqueCount="57">
-  <si>
-    <t>refEntity</t>
-  </si>
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="93" uniqueCount="55">
   <si>
     <t>ccy</t>
   </si>
@@ -55,9 +55,6 @@
     <t>cdsZAR</t>
   </si>
   <si>
-    <t>referenceEntity</t>
-  </si>
-  <si>
     <t>hazardCurveACME_CORP</t>
   </si>
   <si>
@@ -88,12 +85,6 @@
     <t>USD</t>
   </si>
   <si>
-    <t>baseCurrency</t>
-  </si>
-  <si>
-    <t>counterCurrency</t>
-  </si>
-  <si>
     <t>dates</t>
   </si>
   <si>
@@ -133,9 +124,6 @@
     <t>survivalProbSource</t>
   </si>
   <si>
-    <t>otherCurrency</t>
-  </si>
-  <si>
     <t>fxSource</t>
   </si>
   <si>
@@ -188,6 +176,15 @@
   </si>
   <si>
     <t>cdsUSDQuanto</t>
+  </si>
+  <si>
+    <t>QSA.CreateReferenceEntity</t>
+  </si>
+  <si>
+    <t>currencyPair</t>
+  </si>
+  <si>
+    <t>USDZAR</t>
   </si>
 </sst>
 </file>
@@ -225,7 +222,7 @@
       <scheme val="minor"/>
     </font>
   </fonts>
-  <fills count="8">
+  <fills count="9">
     <fill>
       <patternFill patternType="none"/>
     </fill>
@@ -268,6 +265,12 @@
         <bgColor indexed="64"/>
       </patternFill>
     </fill>
+    <fill>
+      <patternFill patternType="solid">
+        <fgColor theme="9" tint="0.39997558519241921"/>
+        <bgColor indexed="64"/>
+      </patternFill>
+    </fill>
   </fills>
   <borders count="1">
     <border>
@@ -282,7 +285,7 @@
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
     <xf numFmtId="9" fontId="1" fillId="0" borderId="0" applyFont="0" applyFill="0" applyBorder="0" applyAlignment="0" applyProtection="0"/>
   </cellStyleXfs>
-  <cellXfs count="17">
+  <cellXfs count="18">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
     <xf numFmtId="15" fontId="0" fillId="0" borderId="0" xfId="0" applyNumberFormat="1"/>
     <xf numFmtId="0" fontId="2" fillId="0" borderId="0" xfId="0" applyFont="1"/>
@@ -300,6 +303,7 @@
     <xf numFmtId="0" fontId="0" fillId="7" borderId="0" xfId="0" applyFill="1"/>
     <xf numFmtId="10" fontId="0" fillId="7" borderId="0" xfId="1" applyNumberFormat="1" applyFont="1" applyFill="1"/>
     <xf numFmtId="4" fontId="0" fillId="4" borderId="0" xfId="0" applyNumberFormat="1" applyFill="1"/>
+    <xf numFmtId="0" fontId="0" fillId="8" borderId="0" xfId="0" applyFill="1"/>
   </cellXfs>
   <cellStyles count="2">
     <cellStyle name="Normal" xfId="0" builtinId="0"/>
@@ -632,41 +636,42 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:H29"/>
   <sheetViews>
-    <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="E21" sqref="E21"/>
+    <sheetView workbookViewId="0">
+      <selection activeCell="C16" sqref="C16"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultColWidth="7.5546875" defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="12" bestFit="1" customWidth="1"/>
-    <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="11.5703125" customWidth="1"/>
-    <col min="8" max="8" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.77734375" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="48.44140625" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="34.88671875" customWidth="1"/>
+    <col min="5" max="5" width="12.77734375" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="12.44140625" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="6" bestFit="1" customWidth="1"/>
+    <col min="8" max="8" width="14.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C2" s="4" t="s">
         <v>10</v>
       </c>
-      <c r="C2" s="4" t="s">
-        <v>11</v>
-      </c>
       <c r="E2" s="3" t="s">
+        <v>1</v>
+      </c>
+      <c r="F2" s="3" t="s">
+        <v>7</v>
+      </c>
+      <c r="G2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="F2" s="3" t="s">
-        <v>8</v>
-      </c>
-      <c r="G2" s="3" t="s">
+      <c r="H2" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="H2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:8" x14ac:dyDescent="0.25">
+    </row>
+    <row r="3" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
@@ -686,12 +691,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="b">
         <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
       </c>
       <c r="E4" s="6">
         <v>42890</v>
@@ -707,13 +712,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="2:8" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="b">
-        <v>1</v>
-      </c>
+    <row r="5" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E5" s="6">
         <v>42982</v>
       </c>
@@ -728,7 +727,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E6" s="6">
         <v>43073</v>
       </c>
@@ -743,7 +742,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="7" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E7" s="6">
         <v>43163</v>
       </c>
@@ -758,7 +757,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E8" s="6">
         <v>43255</v>
       </c>
@@ -773,7 +772,10 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:8" ht="21" x14ac:dyDescent="0.4">
+      <c r="B9" s="2" t="s">
+        <v>52</v>
+      </c>
       <c r="E9" s="6">
         <v>43347</v>
       </c>
@@ -788,7 +790,13 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B10" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C10" s="4" t="s">
+        <v>5</v>
+      </c>
       <c r="E10" s="6">
         <v>43438</v>
       </c>
@@ -803,7 +811,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E11" s="6">
         <v>43528</v>
       </c>
@@ -818,7 +826,14 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:8" ht="15" x14ac:dyDescent="0.25">
+      <c r="B12" s="17" t="s">
+        <v>5</v>
+      </c>
+      <c r="C12" s="5" t="str">
+        <f>_xll.QSA.CreateReferenceEntity(B12,C10)</f>
+        <v>ACME_CORP.18:56:57-61</v>
+      </c>
       <c r="E12" s="6">
         <v>43620</v>
       </c>
@@ -833,7 +848,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E13" s="6">
         <v>43712</v>
       </c>
@@ -848,7 +863,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E14" s="6">
         <v>43803</v>
       </c>
@@ -863,37 +878,37 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="2:8" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:8" ht="15" x14ac:dyDescent="0.25">
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:8" ht="21" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="str">
-        <f>_xll.QSA.CreateCDS(C2,C3,C4,E3:E14,F3:F14,G3:G14,H3:H14,C5)</f>
-        <v>cdsZAR.14:05:38-264</v>
+        <f>_xll.QSA.CreateCDS(C2,C12,C3,E3:E14,F3:F14,G3:G14,H3:H14,C4)</f>
+        <v>cdsZAR.18:56:57-62</v>
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C21" s="4" t="str">
         <f>C2&amp;"ValueResults"</f>
@@ -901,51 +916,51 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>47</v>
+        <v>42</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>B17</f>
-        <v>cdsZAR.14:05:38-264</v>
+        <v>cdsZAR.18:56:57-62</v>
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C23" s="10">
         <f>'FX Model etc'!C1</f>
         <v>42708</v>
       </c>
     </row>
-    <row r="24" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="24" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B24" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C24" s="9" t="str">
         <f>'FX Model etc'!B22</f>
-        <v>DeterministicCreditWithFXJumpACME_CORP.14:05:38-250</v>
-      </c>
-    </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+        <v>DeterministicCreditWithFXJumpACME_CORP.18:56:57-70</v>
+      </c>
+    </row>
+    <row r="25" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C25" s="14">
         <v>10000</v>
       </c>
     </row>
-    <row r="27" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="27" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B27" s="5" t="str">
         <f>_xll.QSA.Value(C21,C22:C22,C23,C24,C25)</f>
-        <v>cdsZARValueResults.14:05:38-265</v>
-      </c>
-    </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+        <v>cdsZARValueResults.18:56:58-73</v>
+      </c>
+    </row>
+    <row r="29" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C29" s="16">
         <f>_xll.QSA.GetResults(B27,"value")</f>
@@ -961,49 +976,49 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B2:I32"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C23" sqref="C23"/>
+    <sheetView topLeftCell="A4" workbookViewId="0">
+      <selection activeCell="C22" sqref="C22"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="32.7109375" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="53.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="32.6640625" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="53.44140625" bestFit="1" customWidth="1"/>
     <col min="5" max="5" width="14" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="13.28515625" bestFit="1" customWidth="1"/>
-    <col min="7" max="8" width="11.5703125" customWidth="1"/>
-    <col min="9" max="9" width="15.28515625" bestFit="1" customWidth="1"/>
+    <col min="6" max="6" width="13.33203125" bestFit="1" customWidth="1"/>
+    <col min="7" max="8" width="11.5546875" customWidth="1"/>
+    <col min="9" max="9" width="15.33203125" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:9" x14ac:dyDescent="0.3">
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>55</v>
+        <v>50</v>
       </c>
       <c r="E2" s="3" t="s">
-        <v>2</v>
+        <v>1</v>
       </c>
       <c r="F2" s="3" t="s">
-        <v>52</v>
+        <v>47</v>
       </c>
       <c r="G2" s="3" t="s">
-        <v>53</v>
+        <v>48</v>
       </c>
       <c r="H2" s="3" t="s">
-        <v>54</v>
+        <v>49</v>
       </c>
       <c r="I2" s="3" t="s">
-        <v>4</v>
-      </c>
-    </row>
-    <row r="3" spans="2:9" x14ac:dyDescent="0.25">
+        <v>3</v>
+      </c>
+    </row>
+    <row r="3" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>0</v>
       </c>
       <c r="C3" s="4" t="s">
-        <v>6</v>
+        <v>20</v>
       </c>
       <c r="E3" s="6">
         <v>42798</v>
@@ -1022,12 +1037,12 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="4" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="B4" s="3" t="s">
+        <v>4</v>
+      </c>
+      <c r="C4" s="4" t="b">
         <v>1</v>
-      </c>
-      <c r="C4" s="4" t="s">
-        <v>22</v>
       </c>
       <c r="E4" s="6">
         <v>42890</v>
@@ -1047,13 +1062,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="5" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B5" s="3" t="s">
-        <v>5</v>
-      </c>
-      <c r="C5" s="4" t="b">
-        <v>1</v>
-      </c>
+    <row r="5" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="E5" s="6">
         <v>42982</v>
       </c>
@@ -1072,7 +1081,13 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="6" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="6" spans="2:9" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
+        <v>9</v>
+      </c>
+      <c r="C6" s="4" t="s">
+        <v>51</v>
+      </c>
       <c r="E6" s="6">
         <v>43073</v>
       </c>
@@ -1091,13 +1106,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="7" spans="2:9" x14ac:dyDescent="0.25">
-      <c r="B7" s="3" t="s">
-        <v>10</v>
-      </c>
-      <c r="C7" s="4" t="s">
-        <v>56</v>
-      </c>
+    <row r="7" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="E7" s="6">
         <v>43163</v>
       </c>
@@ -1116,7 +1125,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="8" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="E8" s="6">
         <v>43255</v>
       </c>
@@ -1135,7 +1144,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="9" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="9" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="E9" s="6">
         <v>43347</v>
       </c>
@@ -1154,7 +1163,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="10" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="10" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="E10" s="6">
         <v>43438</v>
       </c>
@@ -1173,7 +1182,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="11" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="11" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="E11" s="6">
         <v>43528</v>
       </c>
@@ -1192,7 +1201,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="12" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="12" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="E12" s="6">
         <v>43620</v>
       </c>
@@ -1211,7 +1220,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="13" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="13" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="E13" s="6">
         <v>43712</v>
       </c>
@@ -1230,7 +1239,7 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="14" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="14" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="E14" s="6">
         <v>43803</v>
       </c>
@@ -1249,41 +1258,41 @@
         <v>0.25</v>
       </c>
     </row>
-    <row r="15" spans="2:9" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:9" ht="15" x14ac:dyDescent="0.25">
       <c r="E15" s="1"/>
     </row>
     <row r="16" spans="2:9" ht="21" x14ac:dyDescent="0.35">
       <c r="B16" s="2" t="s">
-        <v>9</v>
+        <v>8</v>
       </c>
       <c r="E16" s="1"/>
     </row>
-    <row r="17" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="17" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="5" t="str">
-        <f>_xll.QSA.CreateCDS(C2,C3,C4,E3:E14,F3:F14,G3:G14,I3:I14,C5)</f>
-        <v>cdsUSDNaive.14:05:38-243</v>
+        <f>_xll.QSA.CreateCDS(C2,ACME_CORP,C3,E3:E14,F3:F14,G3:G14,I3:I14,C4)</f>
+        <v>cdsUSDNaive.18:56:57-66</v>
       </c>
       <c r="E17" s="1"/>
     </row>
-    <row r="18" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="5" t="str">
-        <f>_xll.QSA.CreateCDS(C7,C3,C4,E3:E14,F3:F14,H3:H14,I3:I14,C5)</f>
-        <v>cdsUSDQuanto.14:05:38-242</v>
+        <f>_xll.QSA.CreateCDS(C6,ACME_CORP,C3,E3:E14,F3:F14,H3:H14,I3:I14,C4)</f>
+        <v>cdsUSDQuanto.18:56:57-67</v>
       </c>
       <c r="E18" s="1"/>
     </row>
-    <row r="19" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="E19" s="1"/>
     </row>
     <row r="20" spans="2:5" ht="21" x14ac:dyDescent="0.35">
       <c r="B20" s="2" t="s">
-        <v>46</v>
+        <v>41</v>
       </c>
       <c r="E20" s="1"/>
     </row>
-    <row r="21" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="21" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B21" s="3" t="s">
-        <v>48</v>
+        <v>43</v>
       </c>
       <c r="C21" s="10">
         <f>'FX Model etc'!C1</f>
@@ -1291,70 +1300,70 @@
       </c>
       <c r="E21" s="1"/>
     </row>
-    <row r="22" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="22" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="3" t="s">
-        <v>49</v>
+        <v>44</v>
       </c>
       <c r="C22" s="9" t="str">
         <f>'FX Model etc'!B22</f>
-        <v>DeterministicCreditWithFXJumpACME_CORP.14:05:38-250</v>
+        <v>DeterministicCreditWithFXJumpACME_CORP.18:56:57-70</v>
       </c>
       <c r="E22" s="1"/>
     </row>
-    <row r="23" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="23" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="3" t="s">
-        <v>51</v>
+        <v>46</v>
       </c>
       <c r="C23" s="14">
         <v>10000</v>
       </c>
     </row>
-    <row r="25" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="25" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B25" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C25" s="4" t="str">
         <f>C2&amp;"ValueResults"</f>
         <v>cdsUSDNaiveValueResults</v>
       </c>
     </row>
-    <row r="26" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="26" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B26" s="5" t="str">
         <f>_xll.QSA.Value(C25,B17,C21,C22,C23)</f>
-        <v>cdsUSDNaiveValueResults.14:05:38-251</v>
-      </c>
-    </row>
-    <row r="28" spans="2:5" x14ac:dyDescent="0.25">
+        <v>cdsUSDNaiveValueResults.18:56:58-72</v>
+      </c>
+    </row>
+    <row r="28" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B28" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C28" s="4" t="str">
-        <f>C7&amp;"ValueResults"</f>
+        <f>C6&amp;"ValueResults"</f>
         <v>cdsUSDQuantoValueResults</v>
       </c>
     </row>
-    <row r="29" spans="2:5" x14ac:dyDescent="0.25">
+    <row r="29" spans="2:5" ht="15" x14ac:dyDescent="0.25">
       <c r="B29" s="5" t="str">
         <f>_xll.QSA.Value(C28,B18,C21,C22,C23)</f>
-        <v>cdsUSDQuantoValueResults.14:05:38-252</v>
-      </c>
-    </row>
-    <row r="31" spans="2:5" x14ac:dyDescent="0.25">
+        <v>cdsUSDQuantoValueResults.18:56:58-71</v>
+      </c>
+    </row>
+    <row r="31" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B31" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C31" s="16">
         <f>_xll.QSA.GetResults(B26,"value")</f>
-        <v>147527.61060340109</v>
-      </c>
-    </row>
-    <row r="32" spans="2:5" x14ac:dyDescent="0.25">
+        <v>145154.83641511152</v>
+      </c>
+    </row>
+    <row r="32" spans="2:5" x14ac:dyDescent="0.3">
       <c r="B32" s="3" t="s">
-        <v>50</v>
+        <v>45</v>
       </c>
       <c r="C32" s="16">
         <f>_xll.QSA.GetResults(B29,"value")</f>
-        <v>9185.0352182866263</v>
+        <v>6805.9030526025299</v>
       </c>
     </row>
   </sheetData>
@@ -1367,58 +1376,51 @@
   <dimension ref="B2:C23"/>
   <sheetViews>
     <sheetView workbookViewId="0">
-      <selection activeCell="B30" sqref="B30"/>
+      <selection activeCell="B12" sqref="B12"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="34.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="23.42578125" bestFit="1" customWidth="1"/>
+    <col min="2" max="2" width="34.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="23.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="2" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="2" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B2" s="3" t="s">
-        <v>10</v>
+        <v>9</v>
       </c>
       <c r="C2" s="4" t="s">
-        <v>13</v>
-      </c>
-    </row>
-    <row r="3" spans="2:3" x14ac:dyDescent="0.25">
+        <v>11</v>
+      </c>
+    </row>
+    <row r="3" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B3" s="3" t="s">
         <v>12</v>
       </c>
-      <c r="C3" s="4" t="s">
-        <v>6</v>
-      </c>
-    </row>
-    <row r="4" spans="2:3" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
-        <v>14</v>
-      </c>
-      <c r="C4" s="10">
+      <c r="C3" s="10">
         <f>'FX Model etc'!C1</f>
         <v>42708</v>
       </c>
     </row>
-    <row r="6" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="4" spans="2:3" ht="15" x14ac:dyDescent="0.25"/>
+    <row r="6" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B6" s="3" t="s">
+        <v>21</v>
+      </c>
+      <c r="C6" s="3" t="s">
         <v>25</v>
       </c>
-      <c r="C6" s="3" t="s">
-        <v>29</v>
-      </c>
-    </row>
-    <row r="7" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="7" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="10">
-        <f>C4</f>
+        <f>C3</f>
         <v>42708</v>
       </c>
       <c r="C7" s="11">
         <v>0.03</v>
       </c>
     </row>
-    <row r="8" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="8" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="10">
         <f>EDATE(B7,120)</f>
         <v>46360</v>
@@ -1429,26 +1431,26 @@
     </row>
     <row r="10" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B10" s="2" t="s">
-        <v>30</v>
-      </c>
-    </row>
-    <row r="11" spans="2:3" x14ac:dyDescent="0.25">
+        <v>26</v>
+      </c>
+    </row>
+    <row r="11" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B11" s="5" t="str">
-        <f>_xll.QSA.CreateHazardCurve(C2,C3,C4,B7:B8,C7:C8)</f>
-        <v>hazardCurveACME_CORP.14:05:38-247</v>
-      </c>
-    </row>
-    <row r="14" spans="2:3" x14ac:dyDescent="0.25">
+        <f>_xll.QSA.CreateHazardCurve(C2,ACME_CORP,C3,B7:B8,C7:C8)</f>
+        <v>hazardCurveACME_CORP.18:56:57-68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>33</v>
+        <v>29</v>
       </c>
       <c r="C14" s="6">
         <v>43073</v>
       </c>
     </row>
-    <row r="15" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="15" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>36</v>
+        <v>32</v>
       </c>
       <c r="C15" s="6">
         <v>43438</v>
@@ -1456,24 +1458,24 @@
     </row>
     <row r="17" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B17" s="2" t="s">
-        <v>31</v>
+        <v>27</v>
       </c>
       <c r="C17" s="12" t="s">
-        <v>32</v>
-      </c>
-    </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="18" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="5">
         <f>_xll.QSA.GetSurvivalProb(B11,C14)</f>
         <v>0.97044553354850815</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="12" t="s">
-        <v>34</v>
-      </c>
-    </row>
-    <row r="20" spans="2:3" x14ac:dyDescent="0.25">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="20" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B20" s="13">
         <f>EXP(-C7)</f>
         <v>0.97044553354850815</v>
@@ -1481,13 +1483,13 @@
     </row>
     <row r="22" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B22" s="2" t="s">
+        <v>27</v>
+      </c>
+      <c r="C22" s="12" t="s">
         <v>31</v>
       </c>
-      <c r="C22" s="12" t="s">
-        <v>35</v>
-      </c>
-    </row>
-    <row r="23" spans="2:3" x14ac:dyDescent="0.25">
+    </row>
+    <row r="23" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B23" s="5">
         <f>_xll.QSA.GetSurvivalProb(B11,C14,C15)</f>
         <v>0.97044553354850815</v>
@@ -1502,28 +1504,28 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" mc:Ignorable="x14ac">
   <dimension ref="B1:L22"/>
   <sheetViews>
-    <sheetView workbookViewId="0">
-      <selection activeCell="C19" sqref="C19"/>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="C15" sqref="C15"/>
     </sheetView>
   </sheetViews>
-  <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
+  <sheetFormatPr defaultRowHeight="14.4" x14ac:dyDescent="0.3"/>
   <cols>
-    <col min="2" max="2" width="56.28515625" bestFit="1" customWidth="1"/>
-    <col min="3" max="3" width="41.5703125" bestFit="1" customWidth="1"/>
-    <col min="4" max="4" width="5.85546875" customWidth="1"/>
+    <col min="2" max="2" width="56.33203125" bestFit="1" customWidth="1"/>
+    <col min="3" max="3" width="41.5546875" bestFit="1" customWidth="1"/>
+    <col min="4" max="4" width="5.88671875" customWidth="1"/>
     <col min="5" max="5" width="27" bestFit="1" customWidth="1"/>
-    <col min="6" max="6" width="8.85546875" bestFit="1" customWidth="1"/>
-    <col min="7" max="7" width="5.28515625" customWidth="1"/>
-    <col min="8" max="8" width="31.42578125" bestFit="1" customWidth="1"/>
-    <col min="9" max="9" width="20.5703125" bestFit="1" customWidth="1"/>
-    <col min="10" max="10" width="5.140625" customWidth="1"/>
+    <col min="6" max="6" width="8.88671875" bestFit="1" customWidth="1"/>
+    <col min="7" max="7" width="5.33203125" customWidth="1"/>
+    <col min="8" max="8" width="31.44140625" bestFit="1" customWidth="1"/>
+    <col min="9" max="9" width="20.5546875" bestFit="1" customWidth="1"/>
+    <col min="10" max="10" width="5.109375" customWidth="1"/>
     <col min="11" max="11" width="36" bestFit="1" customWidth="1"/>
-    <col min="12" max="12" width="31.42578125" bestFit="1" customWidth="1"/>
+    <col min="12" max="12" width="31.44140625" bestFit="1" customWidth="1"/>
   </cols>
   <sheetData>
-    <row r="1" spans="2:12" x14ac:dyDescent="0.25">
+    <row r="1" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B1" t="s">
-        <v>14</v>
+        <v>12</v>
       </c>
       <c r="C1" s="6">
         <v>42708</v>
@@ -1531,96 +1533,97 @@
     </row>
     <row r="2" spans="2:12" ht="21" x14ac:dyDescent="0.35">
       <c r="K2" s="2" t="s">
+        <v>13</v>
+      </c>
+    </row>
+    <row r="3" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="C3" s="4" t="s">
         <v>15</v>
       </c>
-    </row>
-    <row r="3" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B3" s="3" t="s">
+      <c r="E3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="F3" s="4" t="s">
         <v>16</v>
       </c>
-      <c r="C3" s="4" t="s">
+      <c r="H3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="I3" s="4" t="s">
         <v>17</v>
       </c>
-      <c r="E3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="F3" s="4" t="s">
+      <c r="K3" s="3" t="s">
+        <v>14</v>
+      </c>
+      <c r="L3" s="4" t="s">
         <v>18</v>
       </c>
-      <c r="H3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="I3" s="4" t="s">
+    </row>
+    <row r="4" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B4" s="3" t="s">
         <v>19</v>
       </c>
-      <c r="K3" s="3" t="s">
-        <v>16</v>
-      </c>
-      <c r="L3" s="4" t="s">
+      <c r="C4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="E4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="F4" s="4" t="s">
+        <v>6</v>
+      </c>
+      <c r="H4" s="3" t="s">
+        <v>19</v>
+      </c>
+      <c r="I4" s="4" t="s">
         <v>20</v>
       </c>
-    </row>
-    <row r="4" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B4" s="3" t="s">
+      <c r="K4" s="3" t="s">
+        <v>53</v>
+      </c>
+      <c r="L4" s="4" t="s">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="5" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="K5" s="3" t="s">
+        <v>22</v>
+      </c>
+      <c r="L5" s="4">
+        <v>13.66</v>
+      </c>
+    </row>
+    <row r="6" spans="2:12" ht="15" x14ac:dyDescent="0.25">
+      <c r="B6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="C4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="E4" s="3" t="s">
+      <c r="C6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="E6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="F4" s="4" t="s">
-        <v>7</v>
-      </c>
-      <c r="H4" s="3" t="s">
+      <c r="F6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="H6" s="3" t="s">
         <v>21</v>
       </c>
-      <c r="I4" s="4" t="s">
-        <v>22</v>
-      </c>
-      <c r="K4" s="3" t="s">
+      <c r="I6" s="3" t="s">
+        <v>2</v>
+      </c>
+      <c r="K6" s="3" t="s">
         <v>23</v>
       </c>
-      <c r="L4" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="5" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="K5" s="3" t="s">
-        <v>24</v>
-      </c>
-      <c r="L5" s="4" t="s">
-        <v>7</v>
-      </c>
-    </row>
-    <row r="6" spans="2:12" x14ac:dyDescent="0.25">
-      <c r="B6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="C6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="E6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="F6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="H6" s="3" t="s">
-        <v>25</v>
-      </c>
-      <c r="I6" s="3" t="s">
-        <v>3</v>
-      </c>
-      <c r="K6" s="3" t="s">
-        <v>26</v>
-      </c>
-      <c r="L6" s="4">
-        <v>13.66</v>
-      </c>
-    </row>
-    <row r="7" spans="2:12" x14ac:dyDescent="0.25">
+      <c r="L6" s="9" t="str">
+        <f>H10</f>
+        <v>USDDiscountAndBasis.18:56:57-63</v>
+      </c>
+    </row>
+    <row r="7" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B7" s="6">
         <f>$C$1</f>
         <v>42708</v>
@@ -1643,14 +1646,14 @@
         <v>0.01</v>
       </c>
       <c r="K7" s="3" t="s">
-        <v>27</v>
+        <v>24</v>
       </c>
       <c r="L7" s="9" t="str">
-        <f>H10</f>
-        <v>USDDiscountAndBasis.14:05:38-245</v>
-      </c>
-    </row>
-    <row r="8" spans="2:12" x14ac:dyDescent="0.25">
+        <f>E10</f>
+        <v>ZARBasis.18:56:57-65</v>
+      </c>
+    </row>
+    <row r="8" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B8" s="6">
         <f>EDATE(B7,120)</f>
         <v>46360</v>
@@ -1672,94 +1675,87 @@
       <c r="I8" s="8">
         <v>1.2E-2</v>
       </c>
-      <c r="K8" s="3" t="s">
-        <v>28</v>
-      </c>
-      <c r="L8" s="9" t="str">
-        <f>E10</f>
-        <v>ZARBasis.14:05:38-246</v>
-      </c>
-    </row>
-    <row r="10" spans="2:12" x14ac:dyDescent="0.25">
+    </row>
+    <row r="10" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B10" s="5" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(C3,B7:B8,C7:C8,C4)</f>
-        <v>ZARDiscount.14:05:38-244</v>
+        <v>ZARDiscount.18:56:57-64</v>
       </c>
       <c r="E10" s="5" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(F3,E7:E8,F7:F8,F4)</f>
-        <v>ZARBasis.14:05:38-246</v>
+        <v>ZARBasis.18:56:57-65</v>
       </c>
       <c r="H10" s="5" t="str">
         <f>_xll.QSA.CreateDatesAndRatesCurve(I3,H7:H8,I7:I8,I4)</f>
-        <v>USDDiscountAndBasis.14:05:38-245</v>
+        <v>USDDiscountAndBasis.18:56:57-63</v>
       </c>
       <c r="K10" s="5" t="str">
-        <f>_xll.QSA.CreateFXForecastCurve(L3,L4,L5,L6,L7,L8)</f>
-        <v>USDZARForwards.14:05:38-248</v>
-      </c>
-    </row>
-    <row r="12" spans="2:12" x14ac:dyDescent="0.25">
+        <f>_xll.QSA.CreateFXForecastCurve(L3,L4,L5,L6,L7)</f>
+        <v>USDZARForwards.18:56:57-69</v>
+      </c>
+    </row>
+    <row r="12" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B12" s="3" t="s">
-        <v>16</v>
+        <v>14</v>
       </c>
       <c r="C12" s="4" t="s">
-        <v>44</v>
-      </c>
-    </row>
-    <row r="13" spans="2:12" x14ac:dyDescent="0.25">
+        <v>39</v>
+      </c>
+    </row>
+    <row r="13" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B13" s="3" t="s">
-        <v>37</v>
+        <v>33</v>
       </c>
       <c r="C13" s="9" t="str">
         <f>'Hazard Curve'!B11</f>
-        <v>hazardCurveACME_CORP.14:05:38-247</v>
-      </c>
-    </row>
-    <row r="14" spans="2:12" x14ac:dyDescent="0.25">
+        <v>hazardCurveACME_CORP.18:56:57-68</v>
+      </c>
+    </row>
+    <row r="14" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B14" s="3" t="s">
-        <v>38</v>
+        <v>53</v>
       </c>
       <c r="C14" s="4" t="s">
-        <v>22</v>
-      </c>
-    </row>
-    <row r="15" spans="2:12" x14ac:dyDescent="0.25">
+        <v>54</v>
+      </c>
+    </row>
+    <row r="15" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B15" s="3" t="s">
-        <v>39</v>
+        <v>34</v>
       </c>
       <c r="C15" s="9" t="str">
         <f>K10</f>
-        <v>USDZARForwards.14:05:38-248</v>
-      </c>
-    </row>
-    <row r="16" spans="2:12" x14ac:dyDescent="0.25">
+        <v>USDZARForwards.18:56:57-69</v>
+      </c>
+    </row>
+    <row r="16" spans="2:12" ht="15" x14ac:dyDescent="0.25">
       <c r="B16" s="3" t="s">
-        <v>40</v>
+        <v>35</v>
       </c>
       <c r="C16" s="9" t="str">
         <f>B10</f>
-        <v>ZARDiscount.14:05:38-244</v>
-      </c>
-    </row>
-    <row r="17" spans="2:3" x14ac:dyDescent="0.25">
+        <v>ZARDiscount.18:56:57-64</v>
+      </c>
+    </row>
+    <row r="17" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B17" s="3" t="s">
-        <v>41</v>
+        <v>36</v>
       </c>
       <c r="C17" s="14">
         <v>0.18</v>
       </c>
     </row>
-    <row r="18" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="18" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B18" s="3" t="s">
-        <v>42</v>
+        <v>37</v>
       </c>
       <c r="C18" s="15">
         <v>0.2</v>
       </c>
     </row>
-    <row r="19" spans="2:3" x14ac:dyDescent="0.25">
+    <row r="19" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B19" s="3" t="s">
-        <v>43</v>
+        <v>38</v>
       </c>
       <c r="C19" s="14">
         <v>0.4</v>
@@ -1767,13 +1763,13 @@
     </row>
     <row r="21" spans="2:3" ht="21" x14ac:dyDescent="0.35">
       <c r="B21" s="2" t="s">
-        <v>45</v>
-      </c>
-    </row>
-    <row r="22" spans="2:3" x14ac:dyDescent="0.25">
+        <v>40</v>
+      </c>
+    </row>
+    <row r="22" spans="2:3" ht="15" x14ac:dyDescent="0.25">
       <c r="B22" s="5" t="str">
         <f>_xll.QSA.CreateModelDeterministicCreditWithFXJump(C12,C13,C14,C15,C16,C17,C18,C19)</f>
-        <v>DeterministicCreditWithFXJumpACME_CORP.14:05:38-250</v>
+        <v>DeterministicCreditWithFXJumpACME_CORP.18:56:57-70</v>
       </c>
     </row>
   </sheetData>
